--- a/Missing_Ship_Groups_Performer/Data/Config.xlsx
+++ b/Missing_Ship_Groups_Performer/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlodari\Documents\UiPath\RPA-003-Missing-Ship-Groups\Missing_Ship_Groups_Performer\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nls-my.sharepoint.com/personal/vlodari_nautilus_com/Documents/Documents/UiPath/RPA-034-Missing-Ship-Groups/Missing_Ship_Groups_Performer/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920048F5-8F06-4AD0-A1C1-FC3411A928AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{920048F5-8F06-4AD0-A1C1-FC3411A928AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50D5185B-EA8F-43FA-8046-1E7CB73AE4CB}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
   <si>
     <t>Name</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>ExScreenshotsFolderPath</t>
-  </si>
-  <si>
-    <t>Where to save exceptions screenshots - can be a full or a relative path.</t>
   </si>
   <si>
     <t>LogMessage_GetTransactionData</t>
@@ -186,13 +183,16 @@
   </si>
   <si>
     <t>C:\Users\vlodari\Documents\RPA Screenshots</t>
+  </si>
+  <si>
+    <t>\\dfxi.com\dfs\Shared\VW\IT\RPA-Automation\Dev\RPA-034-Missing-Shipping-Groups</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -216,13 +216,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -241,11 +234,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -255,10 +247,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -621,51 +611,51 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="43.5">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="29">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
       <c r="C5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1666,10 +1656,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z986"/>
+  <dimension ref="A1:Z982"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1722,149 +1712,129 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.5">
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>39</v>
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
+        <v>32</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
+        <v>33</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:26" ht="29">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>37</v>
-      </c>
-    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="29">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" t="b">
-        <v>0</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="17" ht="14.25" customHeight="1"/>
+    <row r="18" ht="14.25" customHeight="1"/>
+    <row r="19" ht="14.25" customHeight="1"/>
+    <row r="20" ht="14.25" customHeight="1"/>
+    <row r="21" ht="14.25" customHeight="1"/>
+    <row r="22" ht="14.25" customHeight="1"/>
+    <row r="23" ht="14.25" customHeight="1"/>
+    <row r="24" ht="14.25" customHeight="1"/>
+    <row r="25" ht="14.25" customHeight="1"/>
+    <row r="26" ht="14.25" customHeight="1"/>
+    <row r="27" ht="14.25" customHeight="1"/>
+    <row r="28" ht="14.25" customHeight="1"/>
+    <row r="29" ht="14.25" customHeight="1"/>
+    <row r="30" ht="14.25" customHeight="1"/>
+    <row r="31" ht="14.25" customHeight="1"/>
+    <row r="32" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -2815,10 +2785,6 @@
     <row r="980" ht="14.25" customHeight="1"/>
     <row r="981" ht="14.25" customHeight="1"/>
     <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2829,8 +2795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -2849,7 +2815,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -2879,42 +2845,62 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
@@ -3910,10 +3896,7 @@
     <row r="999" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" xr:uid="{BA2425B7-9F92-41EE-9035-2D8D00EEAF8B}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>